--- a/bots/crawl_ch/output/electronics_2022-08-29.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-29.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-29 07:10:12</t>
+          <t>2022-08-29 20:59:35</t>
         </is>
       </c>
     </row>
